--- a/tl/S60006.MES.BIN.xlsx
+++ b/tl/S60006.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2B921-F808-4C5F-BE91-5BEBEEC8A0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CBB4DA-8391-4E6F-B129-6F530B6AF6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="15780" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="16470" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60006.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="363">
   <si>
     <t>Status</t>
   </si>
@@ -56,6 +56,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>Yayoi-san is already at the station.</t>
+  </si>
+  <si>
     <t>Yayoi-san was already at the station.</t>
   </si>
   <si>
@@ -237,6 +240,9 @@
   </si>
   <si>
     <t>55</t>
+  </si>
+  <si>
+    <t>The traffic light at the intersection turns red, and the car gradually slows down.</t>
   </si>
   <si>
     <t>The traffic light at the intersection turns red, and the car slows down gradually.</t>
@@ -1610,10 +1616,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -1630,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1645,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1662,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1677,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -1694,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1709,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1726,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1741,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -1758,13 +1764,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -1773,10 +1779,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -1790,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1805,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1822,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -1837,10 +1843,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -1854,13 +1860,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -1869,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1886,7 +1892,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1901,10 +1907,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -1918,25 +1924,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>9</v>
@@ -1950,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1965,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1982,13 +1988,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -1997,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -2014,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -2029,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -2046,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -2061,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -2078,7 +2084,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2093,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -2110,22 +2116,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -2142,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -2157,7 +2163,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -2174,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -2189,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -2206,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2218,13 +2224,13 @@
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -2238,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -2253,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -2270,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2285,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -2302,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -2317,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -2334,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2349,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -2366,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -2381,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -2398,7 +2404,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2413,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -2430,7 +2436,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -2442,10 +2448,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -2462,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2477,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2494,13 +2500,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
@@ -2509,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2526,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -2541,10 +2547,10 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>9</v>
@@ -2558,22 +2564,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2590,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2602,10 +2608,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2622,22 +2628,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2654,13 +2660,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -2669,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2686,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -2701,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2718,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2733,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>9</v>
@@ -2750,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2765,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2782,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2794,10 +2800,10 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2814,7 +2820,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
@@ -2829,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2846,13 +2852,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
@@ -2861,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2878,13 +2884,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
@@ -2893,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2910,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -2925,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2942,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2957,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2974,13 +2980,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
@@ -2989,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -3006,13 +3012,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
@@ -3021,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -3038,7 +3044,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -3053,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -3070,7 +3076,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -3085,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -3102,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -3117,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -3134,13 +3140,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -3149,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -3166,13 +3172,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
@@ -3181,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -3198,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -3213,7 +3219,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -3230,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -3245,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -3262,13 +3268,13 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -3277,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -3294,13 +3300,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -3309,7 +3315,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -3326,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>9</v>
@@ -3341,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
@@ -3358,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3373,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3390,13 +3396,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -3405,7 +3411,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -3422,13 +3428,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
@@ -3437,7 +3443,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3454,13 +3460,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -3469,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3486,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3501,7 +3507,7 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3518,13 +3524,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -3533,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3550,13 +3556,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
@@ -3565,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3582,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>9</v>
@@ -3597,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3614,7 +3620,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3629,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3646,7 +3652,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -3661,7 +3667,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3678,7 +3684,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3693,7 +3699,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3710,13 +3716,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
@@ -3725,10 +3731,10 @@
         <v>9</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>9</v>
@@ -3742,13 +3748,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
@@ -3757,7 +3763,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3774,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
@@ -3789,7 +3795,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3806,13 +3812,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
@@ -3821,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3838,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -3853,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3870,13 +3876,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>9</v>
@@ -3885,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3902,13 +3908,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>9</v>
@@ -3917,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3934,13 +3940,13 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>9</v>
@@ -3949,7 +3955,7 @@
         <v>9</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3966,7 +3972,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
@@ -3981,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -3998,13 +4004,13 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -4013,7 +4019,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -4030,13 +4036,13 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -4045,7 +4051,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -4062,13 +4068,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -4077,7 +4083,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -4094,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
@@ -4109,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -4126,13 +4132,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>9</v>
@@ -4141,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -4158,13 +4164,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
@@ -4173,7 +4179,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -4190,13 +4196,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -4205,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -4222,13 +4228,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>9</v>
@@ -4237,7 +4243,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -4254,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -4269,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
@@ -4286,7 +4292,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>9</v>
@@ -4301,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -4318,7 +4324,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -4333,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -4350,13 +4356,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
@@ -4365,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -4382,7 +4388,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4397,7 +4403,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4414,7 +4420,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
@@ -4429,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4446,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4478,13 +4484,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>9</v>
@@ -4493,7 +4499,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>9</v>
@@ -4510,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4525,7 +4531,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
@@ -4542,13 +4548,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>9</v>
@@ -4557,7 +4563,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>9</v>
@@ -4574,7 +4580,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4589,7 +4595,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>9</v>
@@ -4606,13 +4612,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>9</v>
@@ -4621,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>9</v>
@@ -4638,13 +4644,13 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>9</v>
@@ -4653,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>9</v>
@@ -4670,13 +4676,13 @@
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>9</v>
@@ -4685,7 +4691,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>9</v>
@@ -4702,13 +4708,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>9</v>
@@ -4717,7 +4723,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>9</v>
@@ -4734,13 +4740,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>9</v>
@@ -4749,7 +4755,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>9</v>
@@ -4766,13 +4772,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
@@ -4781,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
@@ -4798,7 +4804,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
@@ -4813,7 +4819,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>9</v>
@@ -4830,13 +4836,13 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>9</v>
@@ -4845,7 +4851,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -4862,13 +4868,13 @@
         <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>9</v>
@@ -4877,7 +4883,7 @@
         <v>9</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>9</v>
@@ -4894,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4909,7 +4915,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -4926,7 +4932,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>9</v>
@@ -4941,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>9</v>
@@ -4958,22 +4964,22 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -4990,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>9</v>
@@ -5005,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>9</v>
@@ -5022,7 +5028,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -5037,7 +5043,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -5054,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>9</v>
@@ -5069,7 +5075,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>9</v>
@@ -5086,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>9</v>
@@ -5101,7 +5107,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -5118,25 +5124,25 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>9</v>
@@ -5150,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -5165,7 +5171,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>9</v>
@@ -5182,22 +5188,22 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>9</v>
@@ -5214,13 +5220,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>9</v>
@@ -5229,7 +5235,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>9</v>
@@ -5246,13 +5252,13 @@
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>9</v>
@@ -5261,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>9</v>
@@ -5278,13 +5284,13 @@
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>9</v>
@@ -5293,7 +5299,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>9</v>
@@ -5310,13 +5316,13 @@
         <v>9</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>9</v>
@@ -5325,7 +5331,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>9</v>
@@ -5342,7 +5348,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -5357,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>9</v>
@@ -5374,13 +5380,13 @@
         <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>9</v>
@@ -5389,7 +5395,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>9</v>
@@ -5406,7 +5412,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -5421,7 +5427,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>9</v>
@@ -5438,22 +5444,22 @@
         <v>9</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>9</v>
@@ -5470,7 +5476,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -5485,7 +5491,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>9</v>
@@ -5502,13 +5508,13 @@
         <v>9</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>9</v>
@@ -5517,7 +5523,7 @@
         <v>9</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>9</v>
@@ -5534,22 +5540,22 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>9</v>
@@ -5566,7 +5572,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>9</v>
@@ -5581,7 +5587,7 @@
         <v>9</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>9</v>
@@ -5598,7 +5604,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -5613,7 +5619,7 @@
         <v>9</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>9</v>
@@ -5630,7 +5636,7 @@
         <v>9</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>9</v>
@@ -5642,10 +5648,10 @@
         <v>9</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>9</v>
@@ -5662,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -5677,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>9</v>
@@ -5694,7 +5700,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>9</v>
@@ -5709,7 +5715,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>9</v>
@@ -5726,7 +5732,7 @@
         <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -5738,10 +5744,10 @@
         <v>9</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>9</v>
@@ -5758,13 +5764,13 @@
         <v>9</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>9</v>
@@ -5773,7 +5779,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>9</v>
@@ -5790,13 +5796,13 @@
         <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>9</v>
@@ -5805,7 +5811,7 @@
         <v>9</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>9</v>
@@ -5822,7 +5828,7 @@
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>9</v>
@@ -5837,7 +5843,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>9</v>
@@ -5854,13 +5860,13 @@
         <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>9</v>
@@ -5869,7 +5875,7 @@
         <v>9</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>9</v>
@@ -5886,13 +5892,13 @@
         <v>9</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>9</v>
@@ -5901,7 +5907,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>9</v>
@@ -5918,13 +5924,13 @@
         <v>9</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>9</v>
@@ -5933,7 +5939,7 @@
         <v>9</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>9</v>
@@ -5950,7 +5956,7 @@
         <v>9</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>9</v>
@@ -5965,7 +5971,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>9</v>
@@ -5982,13 +5988,13 @@
         <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>9</v>
@@ -5997,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>9</v>
@@ -6014,7 +6020,7 @@
         <v>9</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>9</v>
@@ -6029,7 +6035,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>9</v>
@@ -6046,13 +6052,13 @@
         <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>9</v>
@@ -6061,7 +6067,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>9</v>
@@ -6078,7 +6084,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>9</v>
@@ -6093,7 +6099,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>9</v>
@@ -6110,7 +6116,7 @@
         <v>9</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -6125,7 +6131,7 @@
         <v>9</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>9</v>
@@ -6142,13 +6148,13 @@
         <v>9</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>9</v>
@@ -6157,7 +6163,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>9</v>
@@ -6174,13 +6180,13 @@
         <v>9</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>9</v>
@@ -6189,7 +6195,7 @@
         <v>9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>9</v>
@@ -6206,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>9</v>
@@ -6221,7 +6227,7 @@
         <v>9</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>9</v>
@@ -6238,13 +6244,13 @@
         <v>9</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>9</v>
@@ -6253,7 +6259,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>9</v>
@@ -6270,13 +6276,13 @@
         <v>9</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>9</v>
@@ -6285,7 +6291,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>9</v>
@@ -6302,7 +6308,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -6317,7 +6323,7 @@
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>9</v>
@@ -6334,13 +6340,13 @@
         <v>9</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>9</v>
@@ -6349,7 +6355,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>9</v>
@@ -6366,7 +6372,7 @@
         <v>9</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -6381,7 +6387,7 @@
         <v>9</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>9</v>
@@ -6398,13 +6404,13 @@
         <v>9</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>9</v>
@@ -6413,7 +6419,7 @@
         <v>9</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>9</v>
@@ -6430,13 +6436,13 @@
         <v>9</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>9</v>
@@ -6445,7 +6451,7 @@
         <v>9</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>9</v>
@@ -6462,7 +6468,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>9</v>
@@ -6477,7 +6483,7 @@
         <v>9</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>9</v>
@@ -6494,13 +6500,13 @@
         <v>9</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
@@ -6509,7 +6515,7 @@
         <v>9</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>9</v>
@@ -6526,13 +6532,13 @@
         <v>9</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>9</v>
@@ -6541,7 +6547,7 @@
         <v>9</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>9</v>
@@ -6558,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -6573,7 +6579,7 @@
         <v>9</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>9</v>
@@ -6590,13 +6596,13 @@
         <v>9</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>9</v>
@@ -6605,7 +6611,7 @@
         <v>9</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>9</v>
@@ -6622,13 +6628,13 @@
         <v>9</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>9</v>
@@ -6637,7 +6643,7 @@
         <v>9</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>9</v>
@@ -6654,7 +6660,7 @@
         <v>9</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>9</v>
@@ -6669,7 +6675,7 @@
         <v>9</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>9</v>
@@ -6686,7 +6692,7 @@
         <v>9</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -6701,7 +6707,7 @@
         <v>9</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>9</v>
@@ -6718,7 +6724,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>9</v>
@@ -6733,7 +6739,7 @@
         <v>9</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>9</v>
@@ -6750,7 +6756,7 @@
         <v>9</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -6765,7 +6771,7 @@
         <v>9</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>9</v>
@@ -6782,7 +6788,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>9</v>
@@ -6797,7 +6803,7 @@
         <v>9</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>9</v>
@@ -6814,7 +6820,7 @@
         <v>9</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -6829,7 +6835,7 @@
         <v>9</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>9</v>
